--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_28_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_28_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120265.8479244092</v>
+        <v>21407349.51713501</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>120265.8479244092</v>
+        <v>21407349.51713501</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56414.29621582579</v>
+        <v>7143728.491337793</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56414.29621582579</v>
+        <v>7143728.491337793</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1493944648.370429</v>
+        <v>52562362.49267098</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11597.97597594011</v>
+        <v>1151836.567597004</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22711.26122837907</v>
+        <v>2226516.61870432</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33826.62455591869</v>
+        <v>3301196.669811553</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45616.8408627037</v>
+        <v>4268091.56574048</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56739.75927384177</v>
+        <v>5349991.67508933</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67821.62679981769</v>
+        <v>6431082.527488628</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78907.67655609149</v>
+        <v>7511743.948222874</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89845.93754035496</v>
+        <v>8592405.368957087</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101651.3838047504</v>
+        <v>9553194.70993677</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112738.5047066865</v>
+        <v>10647621.05965638</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>123314.6556775992</v>
+        <v>11797621.77816606</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>133987.0175924578</v>
+        <v>12943336.20208795</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>144570.5213501301</v>
+        <v>14089050.62600984</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156369.6391466164</v>
+        <v>15029648.62873662</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>170625.7838000271</v>
+        <v>15699002.55457315</v>
       </c>
     </row>
   </sheetData>
